--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1168563.920350574</v>
+        <v>1224371.751630391</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245799</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484435</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6936066.367189041</v>
+        <v>6942379.498957502</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>286.2721000371766</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>222.2533882666624</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>121.9564923240564</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>221.9926878369677</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>369.3789696789843</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>332.0164959768354</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,25 +1102,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>168.6155041749103</v>
+        <v>27.97358346682135</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.507900045662</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>430.4313829879808</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.6284655821493</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.43430199953463</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>354.4713060635435</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.5532963163069</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602631</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>18.2277202765958</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,10 +1825,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>46.16917954999364</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>146.3752975271668</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>18.22772027659585</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>136.6047512078529</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.5168019860614</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659413</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>146.939906051863</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,13 +2296,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>248.9284599389402</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225785</v>
+        <v>67.42894579208301</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>31.28831241118255</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630781</v>
       </c>
     </row>
     <row r="29">
@@ -2959,13 +2959,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135551</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225763</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>18.05677735225817</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800581</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773008</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752508</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3430,7 +3430,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.40875262509155</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3518,10 +3518,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313376</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.8153550780013</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561532</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3566,10 +3566,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864823</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.203262463343</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.30825486907322</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>22.28534392847749</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3904,19 +3904,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>134.7806822622885</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>53.90045570694593</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4040,7 +4040,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864815</v>
+        <v>414.9510387864833</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4144,16 +4144,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>65.54144271872147</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>82.14201637551066</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1785.218505997676</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>1347.076033181099</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>911.1662483555439</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>477.391503513839</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304677</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304677</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304677</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.019692669128</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.164238080161</v>
+        <v>2230.865855522811</v>
       </c>
       <c r="X2" t="n">
-        <v>584.0217746594717</v>
+        <v>2215.763796142526</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>1807.47767244218</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397431</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064437</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.1653293437081</v>
+        <v>1085.762546272801</v>
       </c>
       <c r="C4" t="n">
-        <v>122.603617826933</v>
+        <v>913.2008347560262</v>
       </c>
       <c r="D4" t="n">
-        <v>122.603617826933</v>
+        <v>747.3228419575489</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>577.5648382082861</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>400.8577841700424</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>93.47707763556171</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>368.2355322066973</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>786.4454139746583</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1245.929281155571</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>1688.188084313216</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.857333538997</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214711</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2274.705037512707</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2028.825591091163</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1750.392590344268</v>
       </c>
       <c r="V4" t="n">
-        <v>992.2117929153466</v>
+        <v>1750.392590344268</v>
       </c>
       <c r="W4" t="n">
-        <v>767.9767546961873</v>
+        <v>1750.392590344268</v>
       </c>
       <c r="X4" t="n">
-        <v>522.5850000295998</v>
+        <v>1505.00083567768</v>
       </c>
       <c r="Y4" t="n">
-        <v>295.1653293437081</v>
+        <v>1277.581164991788</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>1226.179759784392</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>890.8095618279922</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2166.451438646013</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1758.165314945666</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>973.0996549038641</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>800.5379433870891</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1388.81010065622</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1388.81010065622</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1143.418345989632</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>973.0996549038641</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1772.466367533142</v>
+        <v>573.6111384008032</v>
       </c>
       <c r="C8" t="n">
-        <v>1334.323894716565</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>898.4141098910097</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>464.6393650493049</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>304.2846042752933</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743871</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1214.390006873481</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925631</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925631</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925631</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377069</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996783</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336841</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>633.3428749240475</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>460.7811634072723</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>460.7811634072723</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>291.0231596580096</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>291.0231596580096</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>125.4318846838373</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232025</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943381</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>816.3199569622991</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1271.372658261393</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1322.897104090957</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090957</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061299</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925631</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925631</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178737</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.208264049167</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.208264049167</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1027.816509382579</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.1614936430346</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874956</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2859.155227899</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940407</v>
+        <v>2859.155227899</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510714</v>
+        <v>3839.334894469307</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302704</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4764.64297345017</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="12">
@@ -5112,13 +5112,13 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>1033.649484784619</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>861.0877732678443</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>695.2097804693669</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>525.4517767201041</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552876</v>
+        <v>348.7447226818604</v>
       </c>
       <c r="G13" t="n">
-        <v>96.7359766811152</v>
+        <v>183.153447707688</v>
       </c>
       <c r="H13" t="n">
-        <v>96.7359766811152</v>
+        <v>183.153447707688</v>
       </c>
       <c r="I13" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1225.468103503606</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168569</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351992</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526437</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847319</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939397</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5646047172031</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>96.7359766811152</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2006.146234892153</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M14" t="n">
-        <v>3163.194070102703</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N14" t="n">
-        <v>4288.925053539151</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>4836.79883405576</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4836.79883405576</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.79883405576</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112636</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363479</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774513</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353823</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653477</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077852</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1010.202862318824</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C16" t="n">
-        <v>837.6411508020492</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7631580035719</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E16" t="n">
-        <v>502.0051542543092</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F16" t="n">
-        <v>325.2981002160653</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
         <v>325.2981002160653</v>
@@ -5431,10 +5431,10 @@
         <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2008.423949418843</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1674.832906390291</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="X16" t="n">
-        <v>1429.441151723703</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y16" t="n">
-        <v>1202.021481037811</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168569</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351992</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526437</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847317</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>516.9624360939395</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>115.5646047172033</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.1527660539752</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>96.7359766811152</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940407</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510714</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344109</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302704</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112636</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363479</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774512</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353823</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653476</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1003.232425776222</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776222</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777443</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284816</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902378</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160655</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2713.395586583915</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2467.51614016237</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2189.083139415475</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>1902.127631285906</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W19" t="n">
-        <v>1630.101226872197</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.70947220561</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1157.289801519718</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245547</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847298</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874947</v>
+        <v>516.9624360939376</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172016</v>
       </c>
       <c r="H20" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5774,28 +5774,28 @@
         <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.79883405576</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112636</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363479</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774513</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.960878247378</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O21" t="n">
-        <v>447.3579748077852</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580462</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412711</v>
+        <v>914.5724765508968</v>
       </c>
       <c r="D22" t="n">
-        <v>608.7923094427938</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935311</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552876</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G22" t="n">
-        <v>96.7359766811152</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.7359766811152</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5935,25 +5935,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.84397037279</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1778.398881886259</v>
       </c>
       <c r="W22" t="n">
-        <v>1611.862057829512</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y22" t="n">
-        <v>1139.050632477033</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6148,7 +6148,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130894</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.801834709349</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1036.216302815309</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>863.6545912985335</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>697.7765985000563</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>528.0185947507936</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354698</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066054</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745665</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N28" t="n">
         <v>1783.551532113124</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176948</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.872751300484</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1700.846346886775</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.454592220188</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1228.034921534296</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937642</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769891</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>451.8971520785118</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292491</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6625,10 +6625,10 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745665</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N31" t="n">
         <v>1783.551532113124</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903953</v>
+        <v>970.9960463903958</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736203</v>
+        <v>798.4343348736207</v>
       </c>
       <c r="D34" t="n">
-        <v>632.556342075143</v>
+        <v>632.5563420751434</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258802</v>
+        <v>462.7983383258808</v>
       </c>
       <c r="F34" t="n">
-        <v>286.0912842876364</v>
+        <v>286.091284287637</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134641</v>
+        <v>120.5000093134646</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134646</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6898,7 +6898,7 @@
         <v>1635.626090461862</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y34" t="n">
         <v>1162.814665109383</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>3603.973621145286</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.973621145286</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1011.560997133397</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>838.9992856166224</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>673.1212928181451</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181451</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2513.605954495037</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U37" t="n">
-        <v>2235.172953748142</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V37" t="n">
-        <v>1948.217445618572</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1676.191041204864</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1430.799286538276</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1203.379615852385</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771588</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004227</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477104</v>
+        <v>927.067776683164</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309354</v>
+        <v>754.5060651663889</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324581</v>
+        <v>588.6280723679116</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831954</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F40" t="n">
-        <v>267.8521152449517</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707795</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7330,10 +7330,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.92045017358</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2674.992180466347</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050032</v>
+        <v>2429.112734044802</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303137</v>
+        <v>2150.679733297908</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1863.724225168338</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759859</v>
+        <v>1591.69782075463</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093272</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.57329640738</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7409,52 +7409,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903953</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736203</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D43" t="n">
-        <v>632.556342075143</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="E43" t="n">
-        <v>496.4142387799021</v>
+        <v>473.3149733731397</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>296.6079193348959</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7570,7 +7570,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109383</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7646,49 +7646,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136697</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>809.5937635959756</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>643.7157707974983</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>473.9577670482355</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>473.9577670482355</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>308.3664920740632</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>168.4643177644377</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7825,31 +7825,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878948</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176945</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.3818137554</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008505</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878936</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.966900465227</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854782</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.81797281351003</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>239.5100572483141</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866472</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662745</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,13 +8617,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>52.04489477733773</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>421.9740460140706</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294913</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>553.4078591076868</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457119</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807368</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,19 +10595,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10841,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.38105307846673</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>49.73195639979957</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>2.220053416764515</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>268.0111327346212</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>268.0111327346203</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>223.1369608195778</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>96.56253959275486</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>268.01113273462</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>267.5985112554902</v>
       </c>
     </row>
     <row r="18">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37.38363054573588</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.592177662726</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>268.0111327346194</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>35.15749310933367</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627254</v>
+        <v>90.22000922290029</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
     </row>
     <row r="29">
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>135.3636110865058</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142716</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081325</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>120.4463752142722</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>219.0118993322377</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>139.592177662724</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,10 +25561,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>135.3636110865058</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>33.27974144948166</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110.0349065174847</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>22.23190701434994</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>160.795820744411</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>609297.8814720608</v>
+        <v>611241.7345023983</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>609297.8814720608</v>
+        <v>611792.1818835943</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>609660.4424284343</v>
+        <v>611792.1818835943</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581609.0872376157</v>
+        <v>581609.0872376155</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581609.0872376157</v>
+        <v>581609.0872376156</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>581609.0872376157</v>
+        <v>581609.0872376156</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>581609.0872376158</v>
+        <v>581609.0872376156</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606153.6553342314</v>
+        <v>606153.6553342312</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>606153.6553342314</v>
+        <v>606153.6553342313</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>606153.6553342312</v>
+        <v>606153.6553342313</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315052</v>
+        <v>335092.0749315051</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315053</v>
+        <v>335092.0749315051</v>
       </c>
       <c r="D2" t="n">
         <v>335092.0749315052</v>
@@ -26326,10 +26326,10 @@
         <v>315952.4362322977</v>
       </c>
       <c r="G2" t="n">
-        <v>315952.4362322978</v>
+        <v>315952.4362322977</v>
       </c>
       <c r="H2" t="n">
-        <v>315952.4362322979</v>
+        <v>315952.4362322977</v>
       </c>
       <c r="I2" t="n">
         <v>329285.9900858452</v>
@@ -26347,13 +26347,13 @@
         <v>329285.9900858452</v>
       </c>
       <c r="N2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="P2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.9900858452</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.256503903</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390653</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.7156328394</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784505</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104682</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>133864.3835971964</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.762741488</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26448,10 +26448,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049267</v>
+        <v>14245.2055704926</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049268</v>
+        <v>14245.20557049262</v>
       </c>
       <c r="O4" t="n">
         <v>14245.20557049264</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764755</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41824.25373053806</v>
+        <v>-75433.70142773623</v>
       </c>
       <c r="C6" t="n">
-        <v>100367.0469291719</v>
+        <v>121408.1527707056</v>
       </c>
       <c r="D6" t="n">
-        <v>94964.23456954538</v>
+        <v>138748.6971446123</v>
       </c>
       <c r="E6" t="n">
-        <v>4965.416061973956</v>
+        <v>66953.07604909061</v>
       </c>
       <c r="F6" t="n">
-        <v>228764.7098140019</v>
+        <v>228688.151259205</v>
       </c>
       <c r="G6" t="n">
-        <v>228764.7098140019</v>
+        <v>228688.151259205</v>
       </c>
       <c r="H6" t="n">
-        <v>228764.709814002</v>
+        <v>228688.151259205</v>
       </c>
       <c r="I6" t="n">
-        <v>218957.8302767207</v>
+        <v>218934.6059373379</v>
       </c>
       <c r="J6" t="n">
-        <v>126308.0805645699</v>
+        <v>76691.49208456409</v>
       </c>
       <c r="K6" t="n">
-        <v>237322.5459095601</v>
+        <v>223485.3130023323</v>
       </c>
       <c r="L6" t="n">
-        <v>228374.9348210506</v>
+        <v>237299.3215701774</v>
       </c>
       <c r="M6" t="n">
-        <v>50531.55929909187</v>
+        <v>102309.3769571741</v>
       </c>
       <c r="N6" t="n">
-        <v>237322.54590956</v>
+        <v>237299.3215701773</v>
       </c>
       <c r="O6" t="n">
-        <v>237322.54590956</v>
+        <v>237299.3215701773</v>
       </c>
       <c r="P6" t="n">
-        <v>237322.5459095599</v>
+        <v>237299.3215701774</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052223</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825323</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080524</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052223</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052223</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825323</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>72.71868052833514</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>178.5535117764146</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>41.97886990037424</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31345253260372</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>52.65760510107441</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D5" t="n">
-        <v>99.53419100046455</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>56.52996980412246</v>
+        <v>197.1718905122115</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.5286747343967</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3.329665100430077</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.51700839688351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-5.785973998768142e-13</v>
       </c>
     </row>
     <row r="39">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854782</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>44.81797281351003</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>239.5100572483141</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866472</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662745</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>52.04489477733773</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>421.9740460140706</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294913</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35428,7 +35428,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>553.4078591076868</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35893,19 +35893,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>309.6062697457119</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807368</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36519,22 +36519,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908095</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36759,7 +36759,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36771,7 +36771,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36993,10 +36993,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080418</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37315,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908054</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38193,7 +38193,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821507</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
